--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/99/word_level_predictions_99.xlsx
@@ -4402,260 +4402,260 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ambient</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>15</v>
-      </c>
-      <c r="E78" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>2</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>16</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>17</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>2</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>18</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G118" s="2" t="b">
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7597,393 +7597,393 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>16</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>17</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>4</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>18</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>4</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>19</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>4</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>4</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>21</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>22</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/99/word_level_predictions_99.xlsx
@@ -4402,260 +4402,260 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>2</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>14</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>2</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>15</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>2</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>16</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>2</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>17</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>2</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>18</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G118" s="2" t="b">
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -7621,369 +7621,369 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
